--- a/src/test/resources/DE_HomePage.xlsx
+++ b/src/test/resources/DE_HomePage.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="2024-11-21_BROKENLINK" r:id="rId4" sheetId="2"/>
     <sheet name="2024-11-21_BROKENIMAGE" r:id="rId5" sheetId="3"/>
+    <sheet name="2024-11-22_BROKENLINK" r:id="rId6" sheetId="4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6716" uniqueCount="2238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6900" uniqueCount="2238">
   <si>
     <t>URL</t>
   </si>
@@ -6745,7 +6746,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6766,6 +6767,26 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -6850,7 +6871,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6863,6 +6884,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -38254,4 +38279,871 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="9">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="10">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B52" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B53" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B54" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B55" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B56" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B57" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B58" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B59" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B60" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B61" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/test/resources/DE_HomePage.xlsx
+++ b/src/test/resources/DE_HomePage.xlsx
@@ -12,6 +12,7 @@
     <sheet name="2024-11-21_BROKENLINK" r:id="rId4" sheetId="2"/>
     <sheet name="2024-11-21_BROKENIMAGE" r:id="rId5" sheetId="3"/>
     <sheet name="2024-11-22_BROKENLINK" r:id="rId6" sheetId="4"/>
+    <sheet name="2024-11-26_BROKENIMAGE" r:id="rId7" sheetId="5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6900" uniqueCount="2238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8563" uniqueCount="2608">
   <si>
     <t>URL</t>
   </si>
@@ -6737,6 +6738,1116 @@
   </si>
   <si>
     <t>https://de.statista.com/statistik/daten/studie/2800/umfrage/bevorzugte-zahlungsmethoden-beim-online-einkauf-im-jahr-2007</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/10/43_cash.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/10/44_secure.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/10/45_b2b.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/11/46_phone.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/07/47_warehouse.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/07/48_stock.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/07/fakten_zu_netzshopping.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/07/49_paypal.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/07/50_coins.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/06/51_munich.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/06/52_puzzle.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/05/29_stars.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/05/53_product.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/02/54_shopify.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/02/shopify.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/01/55_shop.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/10/56_xmas.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/08/abb1.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/08/abb2.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/08/abb3.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/08/abb4.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/08/abb5.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/08/58_checkout.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/08/59_card.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/08/60_pinterest.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/07/61_news.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/07/62_complete.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/recht-gross.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/63_thumbsup.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/64_woocom.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/kundenbindung.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/65_update.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/66_conveyor.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/67_support.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/social-media.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/einkauf.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/suche-gross.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/mobile-check-out-goss.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/69_chat.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/produktbewertung-gross.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/recht-gross.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/bezahlen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/geselschaftsform-gross.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/sflive-berlin2015.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/70_b2b.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/oxid-goss.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/04/rechnung.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/mobile-check-out-goss.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/71_omni.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/72_portal.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/shopware-klein.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/73_frustration.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/74_art.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/phpshop_logo.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/parfum-flugzeug.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/parfum-flughafen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/make-up-flugzeug.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/make-up-flughafen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/alkohol.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/03/75_retail.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/03/76_pack.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/03/77_online.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/03/cosmo_gross.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/03/randshop_logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/03/content-commerce-camp.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/03/opencart.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/03/idealo-studie-vertrauen-im-e-commerce1.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/03/idealo-studie-vertrauen-im-e-commerce-kundenbewertungen.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/03/idealo-studie-vertrauen-im-e-commerce-guetesiegel.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/05/idealo-studie-vertrauen-im-e-commerce-datenverschluesselung.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/03/idealo-studie-vertrauen-im-e-commerce-auszeichnungen.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/03/idealo-studie-vertrauen-im-e-commerce-pruefzertifikate.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/02/ecommerce-camp.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/01/parfum-studie.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/mehr-umsatz-im-ecommerce.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/01/miet-shop-logo.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/01/79_jet.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/01/alkoholstudie.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/10/banner-medienpartner.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/smx.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/01/gambio-gx2-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/01/magento-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/01/spree-commerce-logo.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/01/38_too-small.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/12/large-drupal-kickstart.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/12/large-uber-carts.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/12/78_wp.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/12/sucuri-site-check.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/12/onlineshopping-rueckblick.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/12/weihnachtsshopping.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/12/oxid-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/12/mf-online-handel.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/expressdienst-ecommerce.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/sameday-ecommerce.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/05/shopware-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/paypal.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/logo-online-b2b-conference.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/shops-mit-gastzugang.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/shops-versandoptionen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/shops-ruckgabefrist.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/shops-ruecksendekosten.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/online-communication-conference.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/modified-big.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/swiss-payment.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/10/medialawcamp.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/campixx-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/Handelskongress.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/buergel_gross.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/10/contaocamp_klein.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/10/woocommerce-big.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/10/virtuemart-big.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/10/joomla.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/10/wordpress.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/10/symfony-live.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/10/zahlungsmittel-de.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/10/kreditkarten-de.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/10/e-payment-de.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/AdobeStock_306025706.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/07/bos-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/05/handel-im-mittelstand.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/07/hard-facts-de.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/07/europakarte.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/07/mobile_vs_responsive.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/07/ios_vs_android.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/07/sepa-laender.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/07/widerrufsrecht-statistik-ruecksendekosten.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/07/widerrufsrecht-statistik-rueckgabefrist.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/06/mieterbund_gross.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/06/30_woman.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/06/cosmo_big.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/06/malakhov-foundation.jpg</t>
+  </si>
+  <si>
+    <t>https://www.seokratie.de/panda-4-infografik.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/06/logo-orange2012.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/06/reporter-ohne-grenzen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/05/haendlerbund_logo.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/05/summit14-datum.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/05/bonitaetspruefung.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/03/meet-magento-save-the-date.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/03/statistik-tafel-gross.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/07/sepa-ueberweisung-klein.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/03/bnd-kaffeestudio.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/03/80_update.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/03/sepa-phishing.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/03/die-konferenzreihe-ecommerce-conference.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/02/kreditkarte.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/02/dropshipping.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/02/hitmeister.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/02/projektmanagement-fehler.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/01/infografik.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/11/novalnet-innovationspreis-it.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/12/nominierung-epayment-innovationspreis-it-2012.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/12/payment-anbieter-novalnet-innovationspreis-it.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/12/Novalnet_stellt_Beirat.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/11/prestashop-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/06/AdobeStock_51914120-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/02/smileys.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/04/email-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/04/adobestock_373416440.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/04/caritas-germany.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/02/e-commerce-award-novalnet.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/02/Urkunde6-211x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/10/Sichere-Kartenzahlung_Depositphotos_13975311_xl-min-scaled.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/10/pci-dss-certificate.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/10/magento-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/05/SAP-Commerce-SAP-Hybris_tw-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/09/Available-on-SAP-Store.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/11/debt-collection-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/10/recht-und-e-commerce_featured-min.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/08/amazon_featured-min.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/08/Privacy-Shield-EU-USA_AdobeStock_118081299_featured-min.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/12/drupal_big.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/07/plastik_verbot_AdobeStock_239730386_featured-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2019/10/sichere-kartenzahlung.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/05/novalnet-AG-lastschrift.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2024/02/Novalnet-ISO20022.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2024/02/united-nations-global-compact-novalnet.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2024/03/tuv-de.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/10/sicher-bezahlen-im-internet_featured-min.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2023/06/thumbnail_1379190_746x466.webp</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/04/Airbus_Novalnet_PSP-Frame-Agreement-scaled.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2024/09/novalnet-ecp-blog.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/07/novalnet-ready-to-pay-integration_tw-min.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/sap-certifies.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/07/mittwald-logo.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/magento-meta-keywords.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/uebersicht.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/07/nexcess-logo.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/Kunde_verwalten_1.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/kunden_exportieren_1.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/benutzerkonto-informationen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/kunden-online.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/anmeldung.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/11/artikel-anlegen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/11/artikelinformationen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/12/uploadderbilder.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/11/ArtikelAttributset.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/01/artikel-dieser-kategorie.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/kundengruppen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/kundengruppen_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/11/metainformationen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/01/upselling.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/01/crossselling.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/magento-url.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/attribut-eigenschaften.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/neuesattributset.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/kundenmeinungen.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/google-sitemap.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/url-rewrite.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/suchbegriffe.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/schlagworte.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/magento-ebook1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/magento-ebook2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/11/magento_ebook_622_3.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/03/online-payment-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/11/preisinformationen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/regelinformationen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/03/sepa-leitfaden-download.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/shopsoftware-im-vergleich.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/01/gambio-gx2-gx3.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/magento-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/jtl-big.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/modified-big.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/opencart-big.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/oxid-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/prestashop-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/shopware-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/virtuemart-big.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/woocommerce-big.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/xtcommerce_big.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/bnr-fraud-prevention.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/ai-based-fraud-prevention.svg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/get-paid-securely-1.svg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/secure-payments.svg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/Layer-12-1.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/icons8-realtime-50.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/icons8-opera-glasses-50.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/icons8-earth-60.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2014/01/zubehoer.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/07/itabs-logo.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/11/ArtikelLagerverwaltung.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/12/wysiwygeditor.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/11/bestellungen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/rechnungserstellung.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2024/02/Novalnet-ISO20022-940x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/12/one-page-940x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/11/ecommerce_handler-940x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/11/Untitled-design-940x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/11/debt-collection-1-940x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/09/novalnet-sepa-600x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/09/end-customer-support-940x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/09/subscription-940x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/improve-your-payment-acceptance-rate-940x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/07/novalnet-ready-to-pay-integration_tw-min-940x430.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/06/payum-connector-by-novalnet-tw-min-940x430.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/12/41_drone-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/07/62_complete-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/01/38_too-small-940x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/06/27_ERP-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/02/31_ERP-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/01/35_webshop-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/07/26_conf-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/06/52_puzzle-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/06/SEPA-form-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/06/AdobeStock_51914120-1-940x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/05/form-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/04/invoice-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/03/direct-debit-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2019/09/10_cartfull-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2019/09/12_cards-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/06/16_cookie-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/03/18_expo-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/03/19_pay-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/01/20_girl-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/02/54_shopify-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/65_update-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/10/42_lock-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/70_b2b-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/72_portal-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/73_frustration-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/04/email-1-940x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/02/smileys-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/01/jan_2022-1-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/01/AdobeStock_210307479-940x430.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/11/AdobeStock_61593918-min-940x430.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/09/imgpsh_fullsize_anim-min-940x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/adobestock_107116739-1-893x430.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/07/paketzusteller-tw-min-940x430.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/06/eu-umsatzsteuerreform-tw-min-940x430.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/05/fax-tw-min-940x430.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/05/Ever-Given-im-Suezkanal_tw-min-940x430.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/04/frau-kauft-apfel-im-supermarkt-tw-min-940x430.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/06/17_Sabmahung-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/07/14_coins-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/12/21_just-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/03/cart-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2019/08/dice-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2019/06/24_recht-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/07/25_global-1-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/01/55_shop-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/01/40_search-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/06/67_support-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/08/60_pinterest-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/07/61_news-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/01/e-commerce-onlineshopping-940x430.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/09/23_dsgvo-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/02/32_key-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/11/46_phone-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/07/47_warehouse-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/07/48_stock-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/02/37_plane-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/02/34_card-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/05/53_product-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/04/novalnet_t3n_award_receiving.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/03/Novalnet-N-blue-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/03/Payment_Lexicon_Novalnet.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/10/Germany.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/10/United-kingdom.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/10/United-states.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2022/10/India.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2024/06/bangalore-nightscape-2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/04/schulung.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/04/Novalnet_Benefits_de.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/03/thirty_bees_payment_module_novalnet-1024x833.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/06/acquirer-scaled.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/08/support.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/05/28_city-940x430.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/04/novalnet-industriepreis2015.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/07/openstream-logo.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/katalog-preisregeln.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2024/10/gabriel-dixon.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/06/johnson-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/06/cristoph-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/09/Emmanuel-Kirse.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2023/08/douglas-cruz-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2024/06/alan-j-hadley.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/06/holger-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/antony-robinson-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/jose-augustine-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/falco.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2024/06/Manfred-Konig.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2023/08/josephine-lehnert.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2023/08/muraz-bakoian.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/bianca-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/samier.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2023/11/Antonio.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/anja.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/gowri-shankar.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/saravanan.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/fang-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/09/SEPA-Logo-DE.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/10/magento-visa-mastercard-kreditkarte-preview.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/10/zahlung-auf-rechnung.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/09/telefonpayment.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/09/paypal-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/09/sofort-ueberweisung.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/06/virtuemart-big.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/06/joom_big.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/06/mijoshop.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/06/j2store_logo.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/06/hikashop.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/06/thumb153.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/09/zahlungsabwicklung.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/11/Novalnet-Wertschoepfungskette-2020-1024x576.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/09/online-shoppen-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/aktionen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/magento-meta-description.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/04/magento-meta-title.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/09/magento-visa-mastercard-kreditkarte-preview.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2016/09/zahlung-auf-rechnung.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/05/Sofort.jpg</t>
   </si>
 </sst>
 </file>
@@ -6746,7 +7857,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6767,6 +7878,26 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -6871,7 +8002,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6888,6 +8019,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39146,4 +40281,7773 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D554"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="13">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="14">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="15">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>1460</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>1461</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>1462</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>1463</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>1464</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>1465</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>1466</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>1467</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>1468</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>1469</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>1470</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>1472</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>1474</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>1475</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>1476</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>1477</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>1479</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>1480</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>1481</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>1482</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>1483</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>1484</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>1485</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>1486</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>1487</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>1488</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>1489</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>1490</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>1491</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>1492</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>1493</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>1494</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>1495</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>1496</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>1497</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>1498</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>1499</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>1500</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>1507</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>1508</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>1512</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>1517</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>1521</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>1522</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>1524</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>1525</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>1531</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>1532</v>
+      </c>
+      <c r="B52" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>1540</v>
+      </c>
+      <c r="B53" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="B54" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>1543</v>
+      </c>
+      <c r="B55" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>1547</v>
+      </c>
+      <c r="B56" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>1553</v>
+      </c>
+      <c r="B57" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>1561</v>
+      </c>
+      <c r="B58" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>1563</v>
+      </c>
+      <c r="B59" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>1565</v>
+      </c>
+      <c r="B60" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>1572</v>
+      </c>
+      <c r="B61" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>1576</v>
+      </c>
+      <c r="B62" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>1579</v>
+      </c>
+      <c r="B63" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>1582</v>
+      </c>
+      <c r="B64" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>1589</v>
+      </c>
+      <c r="B65" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>1595</v>
+      </c>
+      <c r="B66" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>1604</v>
+      </c>
+      <c r="B67" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>1605</v>
+      </c>
+      <c r="B68" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>1609</v>
+      </c>
+      <c r="B69" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>1610</v>
+      </c>
+      <c r="B70" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>1614</v>
+      </c>
+      <c r="B71" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>1616</v>
+      </c>
+      <c r="B72" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>1618</v>
+      </c>
+      <c r="B73" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>1620</v>
+      </c>
+      <c r="B74" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>1623</v>
+      </c>
+      <c r="B75" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>1626</v>
+      </c>
+      <c r="B76" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>1627</v>
+      </c>
+      <c r="B77" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>1629</v>
+      </c>
+      <c r="B78" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>1630</v>
+      </c>
+      <c r="B79" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>1634</v>
+      </c>
+      <c r="B80" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>1636</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>1641</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>1647</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>1654</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>1661</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>1670</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>1672</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>1674</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>1675</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>1679</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>1680</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>1682</v>
+      </c>
+      <c r="B93" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>1685</v>
+      </c>
+      <c r="B94" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>1689</v>
+      </c>
+      <c r="B95" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>1692</v>
+      </c>
+      <c r="B96" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>1694</v>
+      </c>
+      <c r="B97" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>1696</v>
+      </c>
+      <c r="B98" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>1701</v>
+      </c>
+      <c r="B99" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>1704</v>
+      </c>
+      <c r="B100" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>1706</v>
+      </c>
+      <c r="B101" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>1710</v>
+      </c>
+      <c r="B102" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>1714</v>
+      </c>
+      <c r="B103" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>1718</v>
+      </c>
+      <c r="B104" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>1722</v>
+      </c>
+      <c r="B105" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>1729</v>
+      </c>
+      <c r="B106" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>1735</v>
+      </c>
+      <c r="B107" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>1741</v>
+      </c>
+      <c r="B108" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>1745</v>
+      </c>
+      <c r="B109" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>1749</v>
+      </c>
+      <c r="B110" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>1752</v>
+      </c>
+      <c r="B111" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>1753</v>
+      </c>
+      <c r="B112" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>1756</v>
+      </c>
+      <c r="B113" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>1764</v>
+      </c>
+      <c r="B114" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>1775</v>
+      </c>
+      <c r="B115" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>1783</v>
+      </c>
+      <c r="B116" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>1787</v>
+      </c>
+      <c r="B117" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>1795</v>
+      </c>
+      <c r="B118" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>1798</v>
+      </c>
+      <c r="B119" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>1800</v>
+      </c>
+      <c r="B120" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>1802</v>
+      </c>
+      <c r="B121" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>1803</v>
+      </c>
+      <c r="B122" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>1805</v>
+      </c>
+      <c r="B123" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>1811</v>
+      </c>
+      <c r="B124" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>1813</v>
+      </c>
+      <c r="B125" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>1816</v>
+      </c>
+      <c r="B126" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>1817</v>
+      </c>
+      <c r="B127" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>1846</v>
+      </c>
+      <c r="B128" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>1848</v>
+      </c>
+      <c r="B129" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>1853</v>
+      </c>
+      <c r="B130" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>1854</v>
+      </c>
+      <c r="B131" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>1868</v>
+      </c>
+      <c r="B132" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>1870</v>
+      </c>
+      <c r="B133" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>1895</v>
+      </c>
+      <c r="B134" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>1945</v>
+      </c>
+      <c r="B135" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>1948</v>
+      </c>
+      <c r="B136" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>1950</v>
+      </c>
+      <c r="B137" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>1959</v>
+      </c>
+      <c r="B138" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>1960</v>
+      </c>
+      <c r="B139" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>1961</v>
+      </c>
+      <c r="B140" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>1964</v>
+      </c>
+      <c r="B141" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>1975</v>
+      </c>
+      <c r="B142" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>1977</v>
+      </c>
+      <c r="B143" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>1978</v>
+      </c>
+      <c r="B144" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>1981</v>
+      </c>
+      <c r="B145" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>2006</v>
+      </c>
+      <c r="B146" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>2007</v>
+      </c>
+      <c r="B147" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>2025</v>
+      </c>
+      <c r="B148" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>2045</v>
+      </c>
+      <c r="B149" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>2044</v>
+      </c>
+      <c r="B150" t="n" s="0">
+        <v>404.0</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>2064</v>
+      </c>
+      <c r="B151" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>2066</v>
+      </c>
+      <c r="B152" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>2080</v>
+      </c>
+      <c r="B153" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>2082</v>
+      </c>
+      <c r="B154" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>2083</v>
+      </c>
+      <c r="B155" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>2085</v>
+      </c>
+      <c r="B156" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>2087</v>
+      </c>
+      <c r="B157" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D157" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>2105</v>
+      </c>
+      <c r="B158" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>2142</v>
+      </c>
+      <c r="B159" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D159" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>2148</v>
+      </c>
+      <c r="B160" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>2157</v>
+      </c>
+      <c r="B161" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>2161</v>
+      </c>
+      <c r="B162" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>2163</v>
+      </c>
+      <c r="B163" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>2164</v>
+      </c>
+      <c r="B164" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D164" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>2166</v>
+      </c>
+      <c r="B165" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D165" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>2168</v>
+      </c>
+      <c r="B166" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>2169</v>
+      </c>
+      <c r="B167" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D167" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>2171</v>
+      </c>
+      <c r="B168" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>2182</v>
+      </c>
+      <c r="B169" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D169" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>2184</v>
+      </c>
+      <c r="B170" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D170" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>2195</v>
+      </c>
+      <c r="B171" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>2197</v>
+      </c>
+      <c r="B172" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D172" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>2200</v>
+      </c>
+      <c r="B173" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D173" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>2204</v>
+      </c>
+      <c r="B174" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>2207</v>
+      </c>
+      <c r="B175" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D175" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>2208</v>
+      </c>
+      <c r="B176" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>2211</v>
+      </c>
+      <c r="B177" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>2212</v>
+      </c>
+      <c r="B178" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>2217</v>
+      </c>
+      <c r="B179" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>2219</v>
+      </c>
+      <c r="B180" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D180" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>2221</v>
+      </c>
+      <c r="B181" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>2224</v>
+      </c>
+      <c r="B182" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D182" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>2228</v>
+      </c>
+      <c r="B183" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D183" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>2233</v>
+      </c>
+      <c r="B184" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>2238</v>
+      </c>
+      <c r="B185" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D185" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>2239</v>
+      </c>
+      <c r="B186" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>2240</v>
+      </c>
+      <c r="B187" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D187" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>2241</v>
+      </c>
+      <c r="B188" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D188" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>2242</v>
+      </c>
+      <c r="B189" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D189" t="s" s="0">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>2243</v>
+      </c>
+      <c r="B190" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D190" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>2244</v>
+      </c>
+      <c r="B191" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D191" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>2245</v>
+      </c>
+      <c r="B192" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D192" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>2246</v>
+      </c>
+      <c r="B193" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D193" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>2247</v>
+      </c>
+      <c r="B194" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D194" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>2248</v>
+      </c>
+      <c r="B195" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D195" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>2249</v>
+      </c>
+      <c r="B196" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D196" t="s" s="0">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>2250</v>
+      </c>
+      <c r="B197" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D197" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>2251</v>
+      </c>
+      <c r="B198" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>2252</v>
+      </c>
+      <c r="B199" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D199" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>2253</v>
+      </c>
+      <c r="B200" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D200" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>2254</v>
+      </c>
+      <c r="B201" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D201" t="s" s="0">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>2255</v>
+      </c>
+      <c r="B202" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D202" t="s" s="0">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>2256</v>
+      </c>
+      <c r="B203" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D203" t="s" s="0">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>2257</v>
+      </c>
+      <c r="B204" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D204" t="s" s="0">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>2258</v>
+      </c>
+      <c r="B205" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D205" t="s" s="0">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>2259</v>
+      </c>
+      <c r="B206" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D206" t="s" s="0">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>2260</v>
+      </c>
+      <c r="B207" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D207" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>2261</v>
+      </c>
+      <c r="B208" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D208" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>2262</v>
+      </c>
+      <c r="B209" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D209" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>2263</v>
+      </c>
+      <c r="B210" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>2264</v>
+      </c>
+      <c r="B211" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D211" t="s" s="0">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>2265</v>
+      </c>
+      <c r="B212" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D212" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>2266</v>
+      </c>
+      <c r="B213" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D213" t="s" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>2267</v>
+      </c>
+      <c r="B214" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D214" t="s" s="0">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>2268</v>
+      </c>
+      <c r="B215" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D215" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>2269</v>
+      </c>
+      <c r="B216" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D216" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>2270</v>
+      </c>
+      <c r="B217" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D217" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>2271</v>
+      </c>
+      <c r="B218" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D218" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>2272</v>
+      </c>
+      <c r="B219" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D219" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>2273</v>
+      </c>
+      <c r="B220" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D220" t="s" s="0">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>2274</v>
+      </c>
+      <c r="B221" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D221" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>2275</v>
+      </c>
+      <c r="B222" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D222" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>2276</v>
+      </c>
+      <c r="B223" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D223" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>2277</v>
+      </c>
+      <c r="B224" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D224" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>2278</v>
+      </c>
+      <c r="B225" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D225" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>2279</v>
+      </c>
+      <c r="B226" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D226" t="s" s="0">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>2280</v>
+      </c>
+      <c r="B227" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D227" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>2281</v>
+      </c>
+      <c r="B228" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D228" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>2282</v>
+      </c>
+      <c r="B229" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D229" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>2283</v>
+      </c>
+      <c r="B230" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D230" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>2284</v>
+      </c>
+      <c r="B231" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D231" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>2285</v>
+      </c>
+      <c r="B232" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D232" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>2286</v>
+      </c>
+      <c r="B233" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D233" t="s" s="0">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="0">
+        <v>2287</v>
+      </c>
+      <c r="B234" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D234" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>2288</v>
+      </c>
+      <c r="B235" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D235" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>2289</v>
+      </c>
+      <c r="B236" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D236" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>2290</v>
+      </c>
+      <c r="B237" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D237" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="B238" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D238" t="s" s="0">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>2292</v>
+      </c>
+      <c r="B239" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D239" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>2293</v>
+      </c>
+      <c r="B240" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D240" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>2294</v>
+      </c>
+      <c r="B241" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D241" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>2295</v>
+      </c>
+      <c r="B242" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D242" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>2296</v>
+      </c>
+      <c r="B243" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D243" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>2297</v>
+      </c>
+      <c r="B244" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D244" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>2298</v>
+      </c>
+      <c r="B245" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D245" t="s" s="0">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>2299</v>
+      </c>
+      <c r="B246" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D246" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>2300</v>
+      </c>
+      <c r="B247" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D247" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>2301</v>
+      </c>
+      <c r="B248" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D248" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>2302</v>
+      </c>
+      <c r="B249" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D249" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>2303</v>
+      </c>
+      <c r="B250" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C250" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D250" t="s" s="0">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>2304</v>
+      </c>
+      <c r="B251" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D251" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>2305</v>
+      </c>
+      <c r="B252" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D252" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>2306</v>
+      </c>
+      <c r="B253" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D253" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>2307</v>
+      </c>
+      <c r="B254" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D254" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>2308</v>
+      </c>
+      <c r="B255" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D255" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>2309</v>
+      </c>
+      <c r="B256" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D256" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>2310</v>
+      </c>
+      <c r="B257" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D257" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>2311</v>
+      </c>
+      <c r="B258" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D258" t="s" s="0">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>2312</v>
+      </c>
+      <c r="B259" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D259" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>2313</v>
+      </c>
+      <c r="B260" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D260" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>2314</v>
+      </c>
+      <c r="B261" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D261" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>2315</v>
+      </c>
+      <c r="B262" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D262" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>2316</v>
+      </c>
+      <c r="B263" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D263" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>2317</v>
+      </c>
+      <c r="B264" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D264" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>2318</v>
+      </c>
+      <c r="B265" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D265" t="s" s="0">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>2319</v>
+      </c>
+      <c r="B266" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D266" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>2320</v>
+      </c>
+      <c r="B267" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D267" t="s" s="0">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>2321</v>
+      </c>
+      <c r="B268" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D268" t="s" s="0">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>2322</v>
+      </c>
+      <c r="B269" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D269" t="s" s="0">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>2323</v>
+      </c>
+      <c r="B270" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D270" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>2324</v>
+      </c>
+      <c r="B271" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D271" t="s" s="0">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>2325</v>
+      </c>
+      <c r="B272" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D272" t="s" s="0">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>2326</v>
+      </c>
+      <c r="B273" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D273" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>2327</v>
+      </c>
+      <c r="B274" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D274" t="s" s="0">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>2328</v>
+      </c>
+      <c r="B275" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D275" t="s" s="0">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>2329</v>
+      </c>
+      <c r="B276" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D276" t="s" s="0">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>2330</v>
+      </c>
+      <c r="B277" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D277" t="s" s="0">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>2331</v>
+      </c>
+      <c r="B278" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D278" t="s" s="0">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>2332</v>
+      </c>
+      <c r="B279" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D279" t="s" s="0">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>2333</v>
+      </c>
+      <c r="B280" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D280" t="s" s="0">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>2334</v>
+      </c>
+      <c r="B281" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D281" t="s" s="0">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="0">
+        <v>2335</v>
+      </c>
+      <c r="B282" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D282" t="s" s="0">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="0">
+        <v>2336</v>
+      </c>
+      <c r="B283" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D283" t="s" s="0">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="0">
+        <v>2337</v>
+      </c>
+      <c r="B284" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D284" t="s" s="0">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="0">
+        <v>2338</v>
+      </c>
+      <c r="B285" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D285" t="s" s="0">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="0">
+        <v>2339</v>
+      </c>
+      <c r="B286" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D286" t="s" s="0">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="0">
+        <v>2340</v>
+      </c>
+      <c r="B287" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D287" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="0">
+        <v>2341</v>
+      </c>
+      <c r="B288" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D288" t="s" s="0">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="0">
+        <v>2342</v>
+      </c>
+      <c r="B289" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D289" t="s" s="0">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="0">
+        <v>2343</v>
+      </c>
+      <c r="B290" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D290" t="s" s="0">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="0">
+        <v>2344</v>
+      </c>
+      <c r="B291" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D291" t="s" s="0">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="0">
+        <v>2345</v>
+      </c>
+      <c r="B292" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D292" t="s" s="0">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="0">
+        <v>2346</v>
+      </c>
+      <c r="B293" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D293" t="s" s="0">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="0">
+        <v>2347</v>
+      </c>
+      <c r="B294" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D294" t="s" s="0">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="0">
+        <v>2348</v>
+      </c>
+      <c r="B295" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D295" t="s" s="0">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="0">
+        <v>2349</v>
+      </c>
+      <c r="B296" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D296" t="s" s="0">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="0">
+        <v>2350</v>
+      </c>
+      <c r="B297" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D297" t="s" s="0">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="0">
+        <v>2351</v>
+      </c>
+      <c r="B298" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D298" t="s" s="0">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="0">
+        <v>2352</v>
+      </c>
+      <c r="B299" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D299" t="s" s="0">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="0">
+        <v>2353</v>
+      </c>
+      <c r="B300" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D300" t="s" s="0">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="0">
+        <v>2354</v>
+      </c>
+      <c r="B301" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D301" t="s" s="0">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="0">
+        <v>2355</v>
+      </c>
+      <c r="B302" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D302" t="s" s="0">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="0">
+        <v>2356</v>
+      </c>
+      <c r="B303" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D303" t="s" s="0">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="0">
+        <v>2357</v>
+      </c>
+      <c r="B304" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D304" t="s" s="0">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="0">
+        <v>2358</v>
+      </c>
+      <c r="B305" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D305" t="s" s="0">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="0">
+        <v>2359</v>
+      </c>
+      <c r="B306" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D306" t="s" s="0">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="0">
+        <v>2360</v>
+      </c>
+      <c r="B307" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D307" t="s" s="0">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="0">
+        <v>2361</v>
+      </c>
+      <c r="B308" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D308" t="s" s="0">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="0">
+        <v>2362</v>
+      </c>
+      <c r="B309" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D309" t="s" s="0">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="0">
+        <v>2363</v>
+      </c>
+      <c r="B310" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D310" t="s" s="0">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="0">
+        <v>2364</v>
+      </c>
+      <c r="B311" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D311" t="s" s="0">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="0">
+        <v>2365</v>
+      </c>
+      <c r="B312" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D312" t="s" s="0">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="0">
+        <v>2366</v>
+      </c>
+      <c r="B313" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D313" t="s" s="0">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="0">
+        <v>2367</v>
+      </c>
+      <c r="B314" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D314" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="0">
+        <v>2368</v>
+      </c>
+      <c r="B315" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D315" t="s" s="0">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="0">
+        <v>2369</v>
+      </c>
+      <c r="B316" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D316" t="s" s="0">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="0">
+        <v>2370</v>
+      </c>
+      <c r="B317" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D317" t="s" s="0">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="0">
+        <v>2371</v>
+      </c>
+      <c r="B318" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D318" t="s" s="0">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="0">
+        <v>2372</v>
+      </c>
+      <c r="B319" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D319" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="0">
+        <v>2373</v>
+      </c>
+      <c r="B320" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D320" t="s" s="0">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="0">
+        <v>2374</v>
+      </c>
+      <c r="B321" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D321" t="s" s="0">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="0">
+        <v>2375</v>
+      </c>
+      <c r="B322" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D322" t="s" s="0">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="0">
+        <v>2376</v>
+      </c>
+      <c r="B323" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D323" t="s" s="0">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>2377</v>
+      </c>
+      <c r="B324" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D324" t="s" s="0">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>2378</v>
+      </c>
+      <c r="B325" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D325" t="s" s="0">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>2379</v>
+      </c>
+      <c r="B326" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D326" t="s" s="0">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>2380</v>
+      </c>
+      <c r="B327" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D327" t="s" s="0">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>2381</v>
+      </c>
+      <c r="B328" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D328" t="s" s="0">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>2382</v>
+      </c>
+      <c r="B329" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D329" t="s" s="0">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>2383</v>
+      </c>
+      <c r="B330" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D330" t="s" s="0">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>2384</v>
+      </c>
+      <c r="B331" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D331" t="s" s="0">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>2385</v>
+      </c>
+      <c r="B332" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D332" t="s" s="0">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
+        <v>2386</v>
+      </c>
+      <c r="B333" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D333" t="s" s="0">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>2387</v>
+      </c>
+      <c r="B334" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D334" t="s" s="0">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>2388</v>
+      </c>
+      <c r="B335" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D335" t="s" s="0">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>2389</v>
+      </c>
+      <c r="B336" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D336" t="s" s="0">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>2390</v>
+      </c>
+      <c r="B337" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D337" t="s" s="0">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>2391</v>
+      </c>
+      <c r="B338" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D338" t="s" s="0">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>2392</v>
+      </c>
+      <c r="B339" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D339" t="s" s="0">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>2393</v>
+      </c>
+      <c r="B340" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D340" t="s" s="0">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="0">
+        <v>2394</v>
+      </c>
+      <c r="B341" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D341" t="s" s="0">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="0">
+        <v>2395</v>
+      </c>
+      <c r="B342" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D342" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="0">
+        <v>2396</v>
+      </c>
+      <c r="B343" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D343" t="s" s="0">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="0">
+        <v>2397</v>
+      </c>
+      <c r="B344" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D344" t="s" s="0">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="0">
+        <v>2398</v>
+      </c>
+      <c r="B345" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D345" t="s" s="0">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>2399</v>
+      </c>
+      <c r="B346" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D346" t="s" s="0">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="0">
+        <v>2400</v>
+      </c>
+      <c r="B347" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D347" t="s" s="0">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="0">
+        <v>2401</v>
+      </c>
+      <c r="B348" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D348" t="s" s="0">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="0">
+        <v>2402</v>
+      </c>
+      <c r="B349" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C349" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D349" t="s" s="0">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="0">
+        <v>2403</v>
+      </c>
+      <c r="B350" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C350" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D350" t="s" s="0">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="0">
+        <v>2404</v>
+      </c>
+      <c r="B351" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C351" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D351" t="s" s="0">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="0">
+        <v>2405</v>
+      </c>
+      <c r="B352" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D352" t="s" s="0">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="0">
+        <v>2406</v>
+      </c>
+      <c r="B353" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C353" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D353" t="s" s="0">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="0">
+        <v>2407</v>
+      </c>
+      <c r="B354" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C354" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D354" t="s" s="0">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="0">
+        <v>2408</v>
+      </c>
+      <c r="B355" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C355" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D355" t="s" s="0">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="0">
+        <v>2409</v>
+      </c>
+      <c r="B356" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C356" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D356" t="s" s="0">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="0">
+        <v>2410</v>
+      </c>
+      <c r="B357" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C357" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D357" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="0">
+        <v>2411</v>
+      </c>
+      <c r="B358" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C358" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D358" t="s" s="0">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="0">
+        <v>2412</v>
+      </c>
+      <c r="B359" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C359" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D359" t="s" s="0">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="0">
+        <v>2413</v>
+      </c>
+      <c r="B360" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C360" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D360" t="s" s="0">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="0">
+        <v>2414</v>
+      </c>
+      <c r="B361" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C361" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D361" t="s" s="0">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="0">
+        <v>2415</v>
+      </c>
+      <c r="B362" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C362" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D362" t="s" s="0">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="0">
+        <v>2416</v>
+      </c>
+      <c r="B363" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C363" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D363" t="s" s="0">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="0">
+        <v>2417</v>
+      </c>
+      <c r="B364" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C364" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D364" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="0">
+        <v>2418</v>
+      </c>
+      <c r="B365" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C365" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D365" t="s" s="0">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="0">
+        <v>2419</v>
+      </c>
+      <c r="B366" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C366" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D366" t="s" s="0">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="0">
+        <v>2420</v>
+      </c>
+      <c r="B367" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C367" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D367" t="s" s="0">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="0">
+        <v>2421</v>
+      </c>
+      <c r="B368" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C368" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D368" t="s" s="0">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="0">
+        <v>2422</v>
+      </c>
+      <c r="B369" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C369" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D369" t="s" s="0">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="0">
+        <v>2423</v>
+      </c>
+      <c r="B370" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C370" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D370" t="s" s="0">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="0">
+        <v>2424</v>
+      </c>
+      <c r="B371" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C371" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D371" t="s" s="0">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="0">
+        <v>2425</v>
+      </c>
+      <c r="B372" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C372" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D372" t="s" s="0">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="0">
+        <v>2426</v>
+      </c>
+      <c r="B373" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C373" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D373" t="s" s="0">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="0">
+        <v>2427</v>
+      </c>
+      <c r="B374" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C374" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D374" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="0">
+        <v>2428</v>
+      </c>
+      <c r="B375" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C375" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D375" t="s" s="0">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="0">
+        <v>2429</v>
+      </c>
+      <c r="B376" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C376" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D376" t="s" s="0">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="0">
+        <v>2430</v>
+      </c>
+      <c r="B377" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C377" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D377" t="s" s="0">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="0">
+        <v>2431</v>
+      </c>
+      <c r="B378" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C378" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D378" t="s" s="0">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="0">
+        <v>2432</v>
+      </c>
+      <c r="B379" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C379" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D379" t="s" s="0">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="0">
+        <v>2433</v>
+      </c>
+      <c r="B380" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C380" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D380" t="s" s="0">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="0">
+        <v>2434</v>
+      </c>
+      <c r="B381" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C381" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D381" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="0">
+        <v>2435</v>
+      </c>
+      <c r="B382" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C382" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D382" t="s" s="0">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="0">
+        <v>2436</v>
+      </c>
+      <c r="B383" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C383" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D383" t="s" s="0">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="0">
+        <v>2437</v>
+      </c>
+      <c r="B384" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C384" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D384" t="s" s="0">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="0">
+        <v>2438</v>
+      </c>
+      <c r="B385" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C385" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D385" t="s" s="0">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="0">
+        <v>2439</v>
+      </c>
+      <c r="B386" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C386" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D386" t="s" s="0">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="0">
+        <v>2440</v>
+      </c>
+      <c r="B387" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C387" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D387" t="s" s="0">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="0">
+        <v>2441</v>
+      </c>
+      <c r="B388" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C388" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D388" t="s" s="0">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="0">
+        <v>2442</v>
+      </c>
+      <c r="B389" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C389" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D389" t="s" s="0">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="0">
+        <v>2443</v>
+      </c>
+      <c r="B390" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C390" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D390" t="s" s="0">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="0">
+        <v>2444</v>
+      </c>
+      <c r="B391" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C391" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D391" t="s" s="0">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="0">
+        <v>2445</v>
+      </c>
+      <c r="B392" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C392" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D392" t="s" s="0">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="0">
+        <v>2446</v>
+      </c>
+      <c r="B393" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C393" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D393" t="s" s="0">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="0">
+        <v>2447</v>
+      </c>
+      <c r="B394" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C394" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D394" t="s" s="0">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="0">
+        <v>2448</v>
+      </c>
+      <c r="B395" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D395" t="s" s="0">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="0">
+        <v>2449</v>
+      </c>
+      <c r="B396" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D396" t="s" s="0">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="0">
+        <v>2450</v>
+      </c>
+      <c r="B397" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D397" t="s" s="0">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="0">
+        <v>2451</v>
+      </c>
+      <c r="B398" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D398" t="s" s="0">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="0">
+        <v>2452</v>
+      </c>
+      <c r="B399" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D399" t="s" s="0">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="0">
+        <v>2453</v>
+      </c>
+      <c r="B400" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C400" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D400" t="s" s="0">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="0">
+        <v>2454</v>
+      </c>
+      <c r="B401" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C401" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D401" t="s" s="0">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="0">
+        <v>2455</v>
+      </c>
+      <c r="B402" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C402" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D402" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="0">
+        <v>2456</v>
+      </c>
+      <c r="B403" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C403" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D403" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="0">
+        <v>2457</v>
+      </c>
+      <c r="B404" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C404" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D404" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="0">
+        <v>2458</v>
+      </c>
+      <c r="B405" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C405" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D405" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="0">
+        <v>2459</v>
+      </c>
+      <c r="B406" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C406" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D406" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="0">
+        <v>2460</v>
+      </c>
+      <c r="B407" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C407" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D407" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="0">
+        <v>2461</v>
+      </c>
+      <c r="B408" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C408" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D408" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="0">
+        <v>2462</v>
+      </c>
+      <c r="B409" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C409" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D409" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="0">
+        <v>2463</v>
+      </c>
+      <c r="B410" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C410" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D410" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="0">
+        <v>2464</v>
+      </c>
+      <c r="B411" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C411" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D411" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="0">
+        <v>2465</v>
+      </c>
+      <c r="B412" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C412" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D412" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="0">
+        <v>2466</v>
+      </c>
+      <c r="B413" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C413" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D413" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="0">
+        <v>2467</v>
+      </c>
+      <c r="B414" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C414" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D414" t="s" s="0">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="0">
+        <v>2468</v>
+      </c>
+      <c r="B415" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C415" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D415" t="s" s="0">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="0">
+        <v>2469</v>
+      </c>
+      <c r="B416" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C416" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D416" t="s" s="0">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="0">
+        <v>2470</v>
+      </c>
+      <c r="B417" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C417" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D417" t="s" s="0">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="0">
+        <v>2471</v>
+      </c>
+      <c r="B418" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C418" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D418" t="s" s="0">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="0">
+        <v>2472</v>
+      </c>
+      <c r="B419" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C419" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D419" t="s" s="0">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="0">
+        <v>2473</v>
+      </c>
+      <c r="B420" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C420" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D420" t="s" s="0">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="0">
+        <v>2474</v>
+      </c>
+      <c r="B421" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C421" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D421" t="s" s="0">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="0">
+        <v>2475</v>
+      </c>
+      <c r="B422" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C422" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D422" t="s" s="0">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="0">
+        <v>2476</v>
+      </c>
+      <c r="B423" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C423" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D423" t="s" s="0">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="0">
+        <v>2477</v>
+      </c>
+      <c r="B424" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C424" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D424" t="s" s="0">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="0">
+        <v>2478</v>
+      </c>
+      <c r="B425" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C425" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D425" t="s" s="0">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="0">
+        <v>2479</v>
+      </c>
+      <c r="B426" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C426" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D426" t="s" s="0">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="0">
+        <v>2480</v>
+      </c>
+      <c r="B427" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C427" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D427" t="s" s="0">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="0">
+        <v>2481</v>
+      </c>
+      <c r="B428" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C428" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D428" t="s" s="0">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="0">
+        <v>2482</v>
+      </c>
+      <c r="B429" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C429" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D429" t="s" s="0">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="0">
+        <v>2483</v>
+      </c>
+      <c r="B430" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C430" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D430" t="s" s="0">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="0">
+        <v>2484</v>
+      </c>
+      <c r="B431" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C431" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D431" t="s" s="0">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="0">
+        <v>2485</v>
+      </c>
+      <c r="B432" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C432" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D432" t="s" s="0">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="0">
+        <v>2486</v>
+      </c>
+      <c r="B433" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C433" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D433" t="s" s="0">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="0">
+        <v>2487</v>
+      </c>
+      <c r="B434" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C434" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D434" t="s" s="0">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="0">
+        <v>2488</v>
+      </c>
+      <c r="B435" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C435" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D435" t="s" s="0">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="0">
+        <v>2489</v>
+      </c>
+      <c r="B436" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C436" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D436" t="s" s="0">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="0">
+        <v>2490</v>
+      </c>
+      <c r="B437" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C437" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D437" t="s" s="0">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="0">
+        <v>2491</v>
+      </c>
+      <c r="B438" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C438" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D438" t="s" s="0">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="0">
+        <v>2492</v>
+      </c>
+      <c r="B439" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C439" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D439" t="s" s="0">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="0">
+        <v>2493</v>
+      </c>
+      <c r="B440" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C440" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D440" t="s" s="0">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="0">
+        <v>2494</v>
+      </c>
+      <c r="B441" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C441" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D441" t="s" s="0">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="0">
+        <v>2495</v>
+      </c>
+      <c r="B442" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C442" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D442" t="s" s="0">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="0">
+        <v>2496</v>
+      </c>
+      <c r="B443" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C443" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D443" t="s" s="0">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="0">
+        <v>2497</v>
+      </c>
+      <c r="B444" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C444" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D444" t="s" s="0">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="0">
+        <v>2498</v>
+      </c>
+      <c r="B445" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C445" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D445" t="s" s="0">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="0">
+        <v>2499</v>
+      </c>
+      <c r="B446" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C446" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D446" t="s" s="0">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="0">
+        <v>2500</v>
+      </c>
+      <c r="B447" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C447" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D447" t="s" s="0">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="0">
+        <v>2501</v>
+      </c>
+      <c r="B448" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C448" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D448" t="s" s="0">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="0">
+        <v>2502</v>
+      </c>
+      <c r="B449" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C449" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D449" t="s" s="0">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="0">
+        <v>2503</v>
+      </c>
+      <c r="B450" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C450" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D450" t="s" s="0">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="0">
+        <v>2504</v>
+      </c>
+      <c r="B451" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C451" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D451" t="s" s="0">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="0">
+        <v>2505</v>
+      </c>
+      <c r="B452" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C452" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D452" t="s" s="0">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="0">
+        <v>2506</v>
+      </c>
+      <c r="B453" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C453" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D453" t="s" s="0">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="0">
+        <v>2507</v>
+      </c>
+      <c r="B454" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C454" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D454" t="s" s="0">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="0">
+        <v>2508</v>
+      </c>
+      <c r="B455" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C455" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D455" t="s" s="0">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="0">
+        <v>2509</v>
+      </c>
+      <c r="B456" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C456" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D456" t="s" s="0">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="0">
+        <v>2510</v>
+      </c>
+      <c r="B457" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C457" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D457" t="s" s="0">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="0">
+        <v>2511</v>
+      </c>
+      <c r="B458" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C458" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D458" t="s" s="0">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="0">
+        <v>2512</v>
+      </c>
+      <c r="B459" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C459" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D459" t="s" s="0">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="0">
+        <v>2513</v>
+      </c>
+      <c r="B460" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C460" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D460" t="s" s="0">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="0">
+        <v>2514</v>
+      </c>
+      <c r="B461" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C461" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D461" t="s" s="0">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="0">
+        <v>2515</v>
+      </c>
+      <c r="B462" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C462" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D462" t="s" s="0">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="0">
+        <v>2516</v>
+      </c>
+      <c r="B463" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C463" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D463" t="s" s="0">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="0">
+        <v>2517</v>
+      </c>
+      <c r="B464" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C464" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D464" t="s" s="0">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="0">
+        <v>2518</v>
+      </c>
+      <c r="B465" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C465" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D465" t="s" s="0">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="0">
+        <v>2519</v>
+      </c>
+      <c r="B466" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C466" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D466" t="s" s="0">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="0">
+        <v>2520</v>
+      </c>
+      <c r="B467" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C467" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D467" t="s" s="0">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="0">
+        <v>2521</v>
+      </c>
+      <c r="B468" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C468" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D468" t="s" s="0">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="0">
+        <v>2522</v>
+      </c>
+      <c r="B469" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C469" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D469" t="s" s="0">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="0">
+        <v>2523</v>
+      </c>
+      <c r="B470" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C470" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D470" t="s" s="0">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="0">
+        <v>2524</v>
+      </c>
+      <c r="B471" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C471" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D471" t="s" s="0">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="0">
+        <v>2525</v>
+      </c>
+      <c r="B472" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C472" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D472" t="s" s="0">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="0">
+        <v>2526</v>
+      </c>
+      <c r="B473" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C473" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D473" t="s" s="0">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="0">
+        <v>2527</v>
+      </c>
+      <c r="B474" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C474" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D474" t="s" s="0">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="0">
+        <v>2528</v>
+      </c>
+      <c r="B475" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C475" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D475" t="s" s="0">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="0">
+        <v>2529</v>
+      </c>
+      <c r="B476" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C476" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D476" t="s" s="0">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="0">
+        <v>2530</v>
+      </c>
+      <c r="B477" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C477" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D477" t="s" s="0">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="0">
+        <v>2531</v>
+      </c>
+      <c r="B478" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C478" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D478" t="s" s="0">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="0">
+        <v>2532</v>
+      </c>
+      <c r="B479" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C479" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D479" t="s" s="0">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="0">
+        <v>2533</v>
+      </c>
+      <c r="B480" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C480" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D480" t="s" s="0">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="0">
+        <v>2534</v>
+      </c>
+      <c r="B481" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C481" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D481" t="s" s="0">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="0">
+        <v>2535</v>
+      </c>
+      <c r="B482" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C482" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D482" t="s" s="0">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="0">
+        <v>2536</v>
+      </c>
+      <c r="B483" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C483" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D483" t="s" s="0">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="0">
+        <v>2537</v>
+      </c>
+      <c r="B484" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C484" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D484" t="s" s="0">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="0">
+        <v>2538</v>
+      </c>
+      <c r="B485" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C485" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D485" t="s" s="0">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="0">
+        <v>2539</v>
+      </c>
+      <c r="B486" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C486" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D486" t="s" s="0">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="0">
+        <v>2540</v>
+      </c>
+      <c r="B487" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C487" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D487" t="s" s="0">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="0">
+        <v>2541</v>
+      </c>
+      <c r="B488" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C488" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D488" t="s" s="0">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="0">
+        <v>2542</v>
+      </c>
+      <c r="B489" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C489" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D489" t="s" s="0">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="0">
+        <v>2543</v>
+      </c>
+      <c r="B490" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C490" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D490" t="s" s="0">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="0">
+        <v>2544</v>
+      </c>
+      <c r="B491" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C491" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D491" t="s" s="0">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="0">
+        <v>2545</v>
+      </c>
+      <c r="B492" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C492" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D492" t="s" s="0">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="0">
+        <v>2546</v>
+      </c>
+      <c r="B493" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C493" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D493" t="s" s="0">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="0">
+        <v>2547</v>
+      </c>
+      <c r="B494" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C494" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D494" t="s" s="0">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="0">
+        <v>2548</v>
+      </c>
+      <c r="B495" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C495" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D495" t="s" s="0">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="0">
+        <v>2549</v>
+      </c>
+      <c r="B496" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C496" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D496" t="s" s="0">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="0">
+        <v>2550</v>
+      </c>
+      <c r="B497" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C497" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D497" t="s" s="0">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="0">
+        <v>2551</v>
+      </c>
+      <c r="B498" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C498" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D498" t="s" s="0">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="0">
+        <v>2552</v>
+      </c>
+      <c r="B499" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C499" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D499" t="s" s="0">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="0">
+        <v>2553</v>
+      </c>
+      <c r="B500" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C500" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D500" t="s" s="0">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="0">
+        <v>2554</v>
+      </c>
+      <c r="B501" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C501" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D501" t="s" s="0">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="0">
+        <v>2555</v>
+      </c>
+      <c r="B502" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C502" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D502" t="s" s="0">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="0">
+        <v>2556</v>
+      </c>
+      <c r="B503" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C503" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D503" t="s" s="0">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="0">
+        <v>2557</v>
+      </c>
+      <c r="B504" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C504" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D504" t="s" s="0">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="0">
+        <v>2558</v>
+      </c>
+      <c r="B505" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C505" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D505" t="s" s="0">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="0">
+        <v>2559</v>
+      </c>
+      <c r="B506" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C506" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D506" t="s" s="0">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="0">
+        <v>2560</v>
+      </c>
+      <c r="B507" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C507" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D507" t="s" s="0">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="0">
+        <v>2561</v>
+      </c>
+      <c r="B508" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C508" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D508" t="s" s="0">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="0">
+        <v>2562</v>
+      </c>
+      <c r="B509" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C509" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D509" t="s" s="0">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="0">
+        <v>2563</v>
+      </c>
+      <c r="B510" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C510" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D510" t="s" s="0">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="0">
+        <v>2564</v>
+      </c>
+      <c r="B511" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C511" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D511" t="s" s="0">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="0">
+        <v>2565</v>
+      </c>
+      <c r="B512" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C512" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D512" t="s" s="0">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="0">
+        <v>2566</v>
+      </c>
+      <c r="B513" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C513" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D513" t="s" s="0">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="0">
+        <v>2567</v>
+      </c>
+      <c r="B514" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C514" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D514" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="0">
+        <v>2568</v>
+      </c>
+      <c r="B515" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C515" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D515" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="0">
+        <v>2569</v>
+      </c>
+      <c r="B516" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C516" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D516" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="0">
+        <v>2570</v>
+      </c>
+      <c r="B517" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C517" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D517" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="0">
+        <v>2571</v>
+      </c>
+      <c r="B518" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C518" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D518" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="0">
+        <v>2572</v>
+      </c>
+      <c r="B519" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C519" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D519" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="0">
+        <v>2573</v>
+      </c>
+      <c r="B520" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C520" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D520" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s" s="0">
+        <v>2574</v>
+      </c>
+      <c r="B521" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C521" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D521" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="0">
+        <v>2575</v>
+      </c>
+      <c r="B522" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C522" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D522" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="0">
+        <v>2576</v>
+      </c>
+      <c r="B523" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C523" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D523" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s" s="0">
+        <v>2577</v>
+      </c>
+      <c r="B524" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C524" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D524" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="0">
+        <v>2578</v>
+      </c>
+      <c r="B525" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C525" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D525" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="0">
+        <v>2579</v>
+      </c>
+      <c r="B526" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C526" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D526" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="0">
+        <v>2580</v>
+      </c>
+      <c r="B527" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C527" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D527" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="0">
+        <v>2581</v>
+      </c>
+      <c r="B528" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C528" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D528" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="0">
+        <v>2582</v>
+      </c>
+      <c r="B529" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C529" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D529" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s" s="0">
+        <v>2583</v>
+      </c>
+      <c r="B530" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C530" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D530" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s" s="0">
+        <v>2584</v>
+      </c>
+      <c r="B531" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C531" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D531" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s" s="0">
+        <v>2585</v>
+      </c>
+      <c r="B532" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C532" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D532" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s" s="0">
+        <v>2586</v>
+      </c>
+      <c r="B533" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C533" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D533" t="s" s="0">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s" s="0">
+        <v>2587</v>
+      </c>
+      <c r="B534" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C534" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D534" t="s" s="0">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s" s="0">
+        <v>2588</v>
+      </c>
+      <c r="B535" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C535" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D535" t="s" s="0">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s" s="0">
+        <v>2589</v>
+      </c>
+      <c r="B536" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C536" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D536" t="s" s="0">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s" s="0">
+        <v>2590</v>
+      </c>
+      <c r="B537" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C537" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D537" t="s" s="0">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s" s="0">
+        <v>2591</v>
+      </c>
+      <c r="B538" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C538" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D538" t="s" s="0">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s" s="0">
+        <v>2592</v>
+      </c>
+      <c r="B539" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C539" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D539" t="s" s="0">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s" s="0">
+        <v>2593</v>
+      </c>
+      <c r="B540" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C540" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D540" t="s" s="0">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s" s="0">
+        <v>2594</v>
+      </c>
+      <c r="B541" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C541" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D541" t="s" s="0">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s" s="0">
+        <v>2595</v>
+      </c>
+      <c r="B542" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C542" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D542" t="s" s="0">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s" s="0">
+        <v>2596</v>
+      </c>
+      <c r="B543" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C543" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D543" t="s" s="0">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s" s="0">
+        <v>2597</v>
+      </c>
+      <c r="B544" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C544" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D544" t="s" s="0">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="0">
+        <v>2598</v>
+      </c>
+      <c r="B545" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C545" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D545" t="s" s="0">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s" s="0">
+        <v>2599</v>
+      </c>
+      <c r="B546" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C546" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D546" t="s" s="0">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="0">
+        <v>2600</v>
+      </c>
+      <c r="B547" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C547" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D547" t="s" s="0">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s" s="0">
+        <v>2601</v>
+      </c>
+      <c r="B548" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C548" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D548" t="s" s="0">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s" s="0">
+        <v>2602</v>
+      </c>
+      <c r="B549" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C549" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D549" t="s" s="0">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s" s="0">
+        <v>2603</v>
+      </c>
+      <c r="B550" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C550" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D550" t="s" s="0">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s" s="0">
+        <v>2604</v>
+      </c>
+      <c r="B551" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C551" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D551" t="s" s="0">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s" s="0">
+        <v>2605</v>
+      </c>
+      <c r="B552" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C552" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D552" t="s" s="0">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s" s="0">
+        <v>2606</v>
+      </c>
+      <c r="B553" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C553" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D553" t="s" s="0">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s" s="0">
+        <v>2607</v>
+      </c>
+      <c r="B554" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C554" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D554" t="s" s="0">
+        <v>1061</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/test/resources/DE_HomePage.xlsx
+++ b/src/test/resources/DE_HomePage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8563" uniqueCount="2608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8758" uniqueCount="2673">
   <si>
     <t>URL</t>
   </si>
@@ -7848,6 +7848,201 @@
   </si>
   <si>
     <t>https://www.novalnet.de/wp-content/uploads/2018/05/Sofort.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/10/neuekategorie.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/07/hosteurope-logo.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/07/rackspeed-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/07/siteground-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/10/kauf-auf-rechnung-new.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/09/online-payment-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/09/warenkoerbe-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/12/kauf-auf-rechnung_Rechnungskauf.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/05/adressen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/07/magento-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/03/online-ueberweisung.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/imgpsh_fullsize.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2015/07/online-payment-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/11/online-shoppen-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/12/online-payment-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/12/online-shoppen-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/03/online-shoppen-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/03/warenkoerbe-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/12/warenkoerbe-min.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/03/payment-anbieter.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/03/zahlungsabwicklung.jpg?fit=200%2C200&amp;ssl=1</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/03/automatisch.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/03/statistik.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2013/03/forderungsmanagement-l.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/10/novalnet-kauf-auf-lastschrift.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/apple-pay-phone-face-id-d.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/apple-pay-devices-face-id-d.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/nn-apple-pay-lady.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/08/nn-apple-pay-unified-commerce.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/02/zahlungsabwicklung.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/02/statistik.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2012/08/versprechen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/02/fingerabdruck.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2017/02/betrugspruefungen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2020/03/orocommerce_payment_module_novalnet.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/allianz.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/Deutsches_Rotes_Kreuz.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/ekomi.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/badheilbrunner.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/dmrz-de.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/adidas.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/bio-zentrale.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/Caritas_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/AXA.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/DEUTZ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/nuk.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/Lamy.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/schuelerhilfe.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/Reporter-ohne-Grenzen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/brodos.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/02/vileda-logo.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/munich-airport.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/02/avon.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/Oreilly.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/01/bayerische-schloesserverwaltung-300x198.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/Bayrisches-Muenzkontor.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/Therme-Erding.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/04/therme.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/TESTIA-AIRBUS.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/01/fraport.png</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/faz.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/schmersal.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/vaillant-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2021/03/heise-online.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2018/04/findologic.png</t>
   </si>
 </sst>
 </file>
@@ -40285,7 +40480,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D554"/>
+  <dimension ref="A1:D619"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -48047,6 +48242,916 @@
         <v>1061</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" t="s" s="0">
+        <v>2608</v>
+      </c>
+      <c r="B555" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C555" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D555" t="s" s="0">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s" s="0">
+        <v>2609</v>
+      </c>
+      <c r="B556" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C556" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D556" t="s" s="0">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s" s="0">
+        <v>2610</v>
+      </c>
+      <c r="B557" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C557" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D557" t="s" s="0">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s" s="0">
+        <v>2611</v>
+      </c>
+      <c r="B558" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C558" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D558" t="s" s="0">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="0">
+        <v>2612</v>
+      </c>
+      <c r="B559" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C559" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D559" t="s" s="0">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s" s="0">
+        <v>2613</v>
+      </c>
+      <c r="B560" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C560" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D560" t="s" s="0">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s" s="0">
+        <v>2614</v>
+      </c>
+      <c r="B561" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C561" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D561" t="s" s="0">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s" s="0">
+        <v>2615</v>
+      </c>
+      <c r="B562" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C562" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D562" t="s" s="0">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s" s="0">
+        <v>2616</v>
+      </c>
+      <c r="B563" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C563" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D563" t="s" s="0">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s" s="0">
+        <v>2617</v>
+      </c>
+      <c r="B564" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C564" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D564" t="s" s="0">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="0">
+        <v>2618</v>
+      </c>
+      <c r="B565" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C565" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D565" t="s" s="0">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s" s="0">
+        <v>2619</v>
+      </c>
+      <c r="B566" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C566" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D566" t="s" s="0">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s" s="0">
+        <v>2620</v>
+      </c>
+      <c r="B567" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C567" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D567" t="s" s="0">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s" s="0">
+        <v>2621</v>
+      </c>
+      <c r="B568" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C568" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D568" t="s" s="0">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s" s="0">
+        <v>2622</v>
+      </c>
+      <c r="B569" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C569" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D569" t="s" s="0">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s" s="0">
+        <v>2623</v>
+      </c>
+      <c r="B570" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C570" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D570" t="s" s="0">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s" s="0">
+        <v>2624</v>
+      </c>
+      <c r="B571" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C571" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D571" t="s" s="0">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s" s="0">
+        <v>2625</v>
+      </c>
+      <c r="B572" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C572" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D572" t="s" s="0">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s" s="0">
+        <v>2626</v>
+      </c>
+      <c r="B573" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C573" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D573" t="s" s="0">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s" s="0">
+        <v>2627</v>
+      </c>
+      <c r="B574" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C574" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D574" t="s" s="0">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s" s="0">
+        <v>2628</v>
+      </c>
+      <c r="B575" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C575" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D575" t="s" s="0">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s" s="0">
+        <v>2629</v>
+      </c>
+      <c r="B576" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C576" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D576" t="s" s="0">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s" s="0">
+        <v>2630</v>
+      </c>
+      <c r="B577" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C577" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D577" t="s" s="0">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s" s="0">
+        <v>2631</v>
+      </c>
+      <c r="B578" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C578" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D578" t="s" s="0">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s" s="0">
+        <v>2632</v>
+      </c>
+      <c r="B579" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C579" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D579" t="s" s="0">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s" s="0">
+        <v>2633</v>
+      </c>
+      <c r="B580" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C580" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D580" t="s" s="0">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s" s="0">
+        <v>2634</v>
+      </c>
+      <c r="B581" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C581" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D581" t="s" s="0">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s" s="0">
+        <v>2635</v>
+      </c>
+      <c r="B582" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C582" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D582" t="s" s="0">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s" s="0">
+        <v>2636</v>
+      </c>
+      <c r="B583" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C583" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D583" t="s" s="0">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s" s="0">
+        <v>2637</v>
+      </c>
+      <c r="B584" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C584" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D584" t="s" s="0">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s" s="0">
+        <v>2638</v>
+      </c>
+      <c r="B585" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C585" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D585" t="s" s="0">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s" s="0">
+        <v>2639</v>
+      </c>
+      <c r="B586" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C586" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D586" t="s" s="0">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s" s="0">
+        <v>2640</v>
+      </c>
+      <c r="B587" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C587" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D587" t="s" s="0">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s" s="0">
+        <v>2641</v>
+      </c>
+      <c r="B588" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C588" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D588" t="s" s="0">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s" s="0">
+        <v>2642</v>
+      </c>
+      <c r="B589" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C589" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D589" t="s" s="0">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s" s="0">
+        <v>2643</v>
+      </c>
+      <c r="B590" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C590" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D590" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s" s="0">
+        <v>2644</v>
+      </c>
+      <c r="B591" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C591" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D591" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s" s="0">
+        <v>2645</v>
+      </c>
+      <c r="B592" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C592" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D592" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s" s="0">
+        <v>2646</v>
+      </c>
+      <c r="B593" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C593" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D593" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s" s="0">
+        <v>2647</v>
+      </c>
+      <c r="B594" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C594" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D594" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s" s="0">
+        <v>2648</v>
+      </c>
+      <c r="B595" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C595" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D595" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s" s="0">
+        <v>2649</v>
+      </c>
+      <c r="B596" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C596" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D596" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s" s="0">
+        <v>2650</v>
+      </c>
+      <c r="B597" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C597" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D597" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s" s="0">
+        <v>2651</v>
+      </c>
+      <c r="B598" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C598" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D598" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s" s="0">
+        <v>2652</v>
+      </c>
+      <c r="B599" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C599" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D599" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="0">
+        <v>2653</v>
+      </c>
+      <c r="B600" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C600" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D600" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s" s="0">
+        <v>2654</v>
+      </c>
+      <c r="B601" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C601" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D601" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s" s="0">
+        <v>2655</v>
+      </c>
+      <c r="B602" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C602" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D602" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s" s="0">
+        <v>2656</v>
+      </c>
+      <c r="B603" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C603" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D603" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="0">
+        <v>2657</v>
+      </c>
+      <c r="B604" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C604" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D604" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="0">
+        <v>2658</v>
+      </c>
+      <c r="B605" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C605" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D605" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="0">
+        <v>2659</v>
+      </c>
+      <c r="B606" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C606" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D606" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s" s="0">
+        <v>2660</v>
+      </c>
+      <c r="B607" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C607" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D607" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s" s="0">
+        <v>2661</v>
+      </c>
+      <c r="B608" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C608" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D608" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s" s="0">
+        <v>2662</v>
+      </c>
+      <c r="B609" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C609" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D609" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s" s="0">
+        <v>2663</v>
+      </c>
+      <c r="B610" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C610" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D610" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s" s="0">
+        <v>2664</v>
+      </c>
+      <c r="B611" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C611" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D611" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s" s="0">
+        <v>2665</v>
+      </c>
+      <c r="B612" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C612" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D612" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s" s="0">
+        <v>2666</v>
+      </c>
+      <c r="B613" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C613" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D613" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s" s="0">
+        <v>2667</v>
+      </c>
+      <c r="B614" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C614" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D614" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s" s="0">
+        <v>2668</v>
+      </c>
+      <c r="B615" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C615" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D615" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s" s="0">
+        <v>2669</v>
+      </c>
+      <c r="B616" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C616" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D616" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s" s="0">
+        <v>2670</v>
+      </c>
+      <c r="B617" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C617" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D617" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s" s="0">
+        <v>2671</v>
+      </c>
+      <c r="B618" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C618" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D618" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s" s="0">
+        <v>2672</v>
+      </c>
+      <c r="B619" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C619" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D619" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/resources/DE_HomePage.xlsx
+++ b/src/test/resources/DE_HomePage.xlsx
@@ -117,7 +117,7 @@
       <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/DE_HomePage.xlsx
+++ b/src/test/resources/DE_HomePage.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2024-11-27_BROKENLINK" r:id="rId4" sheetId="2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -19,12 +20,131 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Status Code</t>
+  </si>
+  <si>
+    <t>Status Text</t>
+  </si>
+  <si>
+    <t>Source Page URL</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/black-friday-in-deutschland-hoeheres-umsatzplus-als-in-den-usa</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/haben-kryptowaehrungen-als-zahlungsmittel-im-onlinehandel-eine-chance</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/welche-zahlungsverfahren-verkaeufer-ihren-kunden-anbieten-sollten</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/b2b-e-commerce-der-richtige-zeitpunkt-fuer-den-einstieg-in-den-digitalen-vertrieb-ist-jetzt</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wie-corona-den-onlinehandel-und-die-welt-veraendert</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wie-haendler-im-jahr-2020-einen-erfolgreichen-b2b-online-shop-erstellen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/recht-und-e-commerce-ueberblick-der-5-wichtigsten-neuigkeiten-im-oktober-2020</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/frist-laeuft-ab-bis-27-november-auf-e-rechnung-umstellen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/b2b-onlineshops-unter-der-lupe-so-messen-sie-ihren-return-on-investment-roi</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/recht-und-e-commerce-ueberblick-der-wichtigsten-neuigkeiten-im-maerz-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/rechtstipps-fuer-online-haendler-die-entscheidungen-aus-dem-april-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/paypal-bestraft-inaktivitaet-bei-haendlerkonten-mit-gebuehr</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/havarie-im-suezkanal-eigner-der-ever-given-bittet-frachtkunden-zur-kasse</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/rechtsnews-fuer-den-e-commerce-die-wichtigsten-im-mai-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-plugin-als-eine-der-besten-shopware-apps-ausgewaehlt</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-und-tink-schliessen-europaweite-partnerschaft-fuer-echtzeit-haendlerzahlungen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-stellt-payment-anbindung-fuer-payum-vor</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/rechtstipps-fuer-online-haendler-die-entscheidungen-aus-dem-juni-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/recht-und-e-commerce-ueberblick-der-wichtigsten-neuigkeiten-im-juli-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/mehr-umsatz-mit-hoeheren-autorisierungsraten</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/internet-world-expo-2018</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/studie-zur-generation-z</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/open-finance-was-es-fuer-ihr-unternehmen-bedeutet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/moto-zahlungen-im-e-commerce-das-muessen-sie-wissen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wie-sie-ihre-kundenzufriedenheit-verbessern-und-ihren-umsatz-steigern</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/der-umgang-mit-rueckbuchungen-was-sie-tun-koennen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/zahlungsdienstleister-novalnet-spendet-an-caritas-fuer-opfer-der-hochwasser-katastrophe</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/zahlungsdienstleister-novalnet-gewinnt-e-commerce-germany-award-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/payment-komplettloesung-von-novalnet-jetzt-im-sap-store-verfuegbar</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-bringt-generation-12-seiner-zahlungsmodule-auf-den-markt</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-als-software-hosted-in-germany-zertifiziert</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -45,6 +165,26 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,11 +229,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,4 +271,479 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/test/resources/DE_HomePage.xlsx
+++ b/src/test/resources/DE_HomePage.xlsx
@@ -114,10 +114,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/DE_HomePage.xlsx
+++ b/src/test/resources/DE_HomePage.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="2024-12-06_BROKENIMAGE" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="2024-12-06_BROKENLINK" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="sheetname" r:id="rId6" sheetId="4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4949" uniqueCount="1578">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -4757,30 +4756,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.novalnet.de/payment-lexikon/vu-nummer</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Status Code</t>
-  </si>
-  <si>
-    <t>Status Text</t>
-  </si>
-  <si>
-    <t>Source Page URL</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>statusCode</t>
-  </si>
-  <si>
-    <t>statusMessage</t>
-  </si>
-  <si>
-    <t>sourceUrl</t>
   </si>
 </sst>
 </file>
@@ -4790,7 +4765,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4818,26 +4793,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4882,7 +4837,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4895,10 +4850,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4922,7 +4873,7 @@
       <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4945,7 +4896,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16099,7 +16050,7 @@
       <selection pane="topLeft" activeCell="Q22" activeCellId="0" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28066,45 +28017,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="3">
-        <v>1578</v>
-      </c>
-      <c r="B1" t="s" s="4">
-        <v>1579</v>
-      </c>
-      <c r="C1" t="s" s="5">
-        <v>1580</v>
-      </c>
-      <c r="D1" t="s" s="6">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>1582</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>1583</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>1584</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>1585</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/src/test/resources/DE_HomePage.xlsx
+++ b/src/test/resources/DE_HomePage.xlsx
@@ -114,10 +114,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/DE_HomePage.xlsx
+++ b/src/test/resources/DE_HomePage.xlsx
@@ -114,10 +114,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/DE_HomePage.xlsx
+++ b/src/test/resources/DE_HomePage.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2024-12-11_BROKENLINK" r:id="rId4" sheetId="2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -17,6 +18,389 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="126">
+  <si>
+    <t>https://www.novalnet.de/author/emmanuel-kirse/</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/author/marco-runge/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/author/joseaugustine/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/author/antony/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/author/emmanuel-kirse#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/zahlungsabwicklung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/full-service-zahlungsabwicklung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/zahlungsgarantie</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/abonnementverwaltung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/seamless-payment-page</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/spezifische-iban</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/pay-by-link</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/virtuelles-terminal</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/callnpay</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalpay</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/split-payments</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/kostenlose-payment-plugins</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/one-click-zahlungen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/custom-domain</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/risikomanagement</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/handling-von-rueckbuchungen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/forderungsmanagement-und-inkasso</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/treuhandkonten</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/echtzeit-ueberwachung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/mitgliederverwaltung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/plattform</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/rechenzentren</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/pci-dss-zertifizierung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/allianz-fuer-cyber-sicherheit</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/sso</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/pci-compliance-leicht-gemacht-mit-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/automatische-rechnungserstellung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/debitorenmanagement</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/auswertung-reporting</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/marktplatz</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/abrechnung-und-auszahlung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/steuer-automatisierung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/schulung-und-support</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/technische-unterstuetzung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/projektmanagement</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/dokumentenmanagement</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/weitere-services</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/saas</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/preise</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/schnittstellen</t>
+  </si>
+  <si>
+    <t>https://developer.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/ueber-uns</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/unser-team</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/kooperationspartner</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/kunden</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/zahlungsinstitut</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/auszeichnungen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/karriere</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/kontakt</t>
+  </si>
+  <si>
+    <t>https://admin.novalnet.de/?lang=de#register</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/der-umbruch-im-zahlungsverkehr-die-revolution-durch-iso-20022</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/author/emmanuel-kirse</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/allgemein</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/governance</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/events</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/m-commerce</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marketing</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marketing/e-mail-marketing</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marketing/sem</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marketing/sem/social-media</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marketing/seo</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/marketing/usibility</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/payment/mobile-payment</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/abmahnungen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/recht/aktuelle-urteile</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/sonstiges</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/studien</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/systeme</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/systeme/shop-systeme</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/nachhaltigkeit</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/news</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/podcast</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/datenschutz</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/impressum</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/cookie-richtlinie</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/weitere-informationen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/payment-lexikon</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/ecommerce-lexikon</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/service-novalnet-logos</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/presse</t>
+  </si>
+  <si>
+    <t>https://www.tuev-saar.de/TK45806</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2024/02/Zertifikat_Software-Hosted-in-Germany.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/wp-content/uploads/2024/12/Novalnet_AG_ESG_SurveyCertificate.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-und-emerchantpay-weiten-strategische-zahlungspartnerschaft-auf-den-us-markt-aus</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-ag-erhaelt-tuev-zertifizierung-geprueftes-zahlungssystem</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-ag-tritt-dem-global-compact-der-vereinten-nationen-bei-ein-meilenstein-in-richtung-nachhaltiger-und-verantwortungsvoller-unternehmensfuehrung</t>
+  </si>
+  <si>
+    <t>https://card.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/novalnet-ag/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/novalnet</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/novalnet</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/novalnet_ag/?hl=de</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/companies/novalnetag</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/author/marco-runge#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/author/marco-runge</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/airbus-waehlt-novalnet-als-zahlungsdienstleister</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/sichere-spendenabwicklung-warum-die-caritas-bei-zahlungen-auf-novalnet-setzt</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/integration-fuer-sap-digital-payments-von-novalnet-jetzt-im-sap-store-verfuegbar</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/rechtstipps-fuer-online-haendler-die-entscheidungen-aus-dem-maerz-2022</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/e-commerce-die-wichtigsten-rechtlichen-neuigkeiten-im-februar-2022</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/rechtsnews-fuer-den-e-commerce-die-wichtigsten-im-januar-2022</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/e-commerce-boom-einkaufen-im-internet-ist-alltaeglich-geworden</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/6-faktoren-zur-auswahl-der-richtigen-betrugspraevention</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/recht-und-e-commerce-ueberblick-der-wichtigsten-neuigkeiten-im-november-und-dezember-2021</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/environment-social-governance-esg-novalnet-erhaelt-nachhaltigkeitszertifikat</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/b2b-011-postcast-zum-bezahlen-im-b2b-commerce-mit-emmanuel-kirse-und-christoph-drewes-von-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/author/marco-runge/page/2</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/author/joseaugustine#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/mehr-umsatz-mit-hoeheren-autorisierungsraten</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/author/joseaugustine</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-bringt-generation-12-seiner-zahlungsmodule-auf-den-markt</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/author/antony#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/author/antony</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/novalnet-uebernimmt-die-zahlungsabwicklung-fuer-den-m-login-der-stadtwerke-muenchen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/magazin/warum-eine-novalnet-ag-abbuchung-kein-grund-zur-sorge-ist</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -114,10 +498,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
+      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -127,4 +511,1753 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D124"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B52" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B53" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B54" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B55" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B56" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B57" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B58" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B59" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B60" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B61" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B62" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B63" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B64" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B65" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B66" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B67" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B68" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B69" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B70" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B71" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B72" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B73" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B74" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B75" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B76" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B77" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B78" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B79" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B80" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B93" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B94" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B95" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B96" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B97" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B98" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B99" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B100" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B101" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B102" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B103" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B104" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B105" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B106" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B107" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B108" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B109" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B110" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B111" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B112" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B113" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B114" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B115" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B116" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B117" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B118" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B119" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B120" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B121" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B122" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B123" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B124" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/test/resources/DE_HomePage.xlsx
+++ b/src/test/resources/DE_HomePage.xlsx
@@ -114,10 +114,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
